--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1481924.475204332</v>
+        <v>1480601.911392395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.03394878</v>
+        <v>5866991.033948781</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736052</v>
+        <v>1783678.472736049</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8267710.658713151</v>
+        <v>8267710.658713152</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>376.0780008668979</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>264.0494865272136</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -676,7 +676,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>166.7503868453366</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>63.03598605112907</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.89209444975032</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>165.4609622848717</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>150.6745918262846</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>72.15339398280494</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>165.4609622848717</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059085</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>368.1319780410717</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1432,7 +1432,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>337.8578625689825</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.3032919683295</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.1752199258842</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1590,13 +1590,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>275.5120998317616</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>117.4784251967216</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1779,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>29.00910643157746</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609893</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2143,10 +2143,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2244,7 +2244,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,10 +2253,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>28.60266288121439</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>306.0455584304623</v>
+        <v>158.2312817147896</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>122.5603156417014</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>103.9034844627083</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>68.36311315201694</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.4697473695408</v>
+        <v>386.6812869399539</v>
       </c>
       <c r="H26" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>122.5603156417014</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>117.0812829725286</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.59089482039434</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>201.4462948508516</v>
       </c>
       <c r="U29" t="n">
-        <v>247.0106858669758</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>66.0789656069614</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>182.1746989999602</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3046,10 +3046,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H32" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508516</v>
       </c>
       <c r="U32" t="n">
         <v>254.4761865113606</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>216.967781179455</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>102.7445979019804</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914971</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313603</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>170.2270503965671</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S37" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>124.1886502500867</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>218.8174477561897</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H38" t="n">
-        <v>306.0455584304623</v>
+        <v>79.34530250563999</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.07896560696139</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
         <v>279.9659758737533</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>211.5822788773251</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3751,7 +3751,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>190.1198520010261</v>
       </c>
       <c r="G41" t="n">
         <v>404.4697473695408</v>
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914964</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>219.234755280439</v>
       </c>
       <c r="U41" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>83.70348851692829</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.4283934324466</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>32.08736782578604</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>122.5603156417014</v>
+        <v>201.4462948508516</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794512</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>116.8096584478619</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.80975575877871</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S46" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.475650327666</v>
+        <v>733.9275993281359</v>
       </c>
       <c r="C2" t="n">
-        <v>968.5988817752439</v>
+        <v>727.84341268181</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>727.4198868152746</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4330,22 +4330,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
         <v>1726.536628995245</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1738.416726816583</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1354.656425951752</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1354.656425951752</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.656425951752</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
         <v>469.7036984844747</v>
@@ -4397,40 +4397,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>1724.070068790185</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796119</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.8713730711994</v>
+        <v>814.2017165957118</v>
       </c>
       <c r="C4" t="n">
-        <v>511.7780006329159</v>
+        <v>645.7669824085031</v>
       </c>
       <c r="D4" t="n">
-        <v>352.2833559558259</v>
+        <v>486.272337731413</v>
       </c>
       <c r="E4" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1235.826782622803</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1235.826782622803</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V4" t="n">
-        <v>961.9410375623251</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W4" t="n">
-        <v>682.8713730711994</v>
+        <v>1052.545578736028</v>
       </c>
       <c r="X4" t="n">
-        <v>682.8713730711994</v>
+        <v>814.2017165957118</v>
       </c>
       <c r="Y4" t="n">
-        <v>682.8713730711994</v>
+        <v>814.2017165957118</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.545542556572</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.461355910247</v>
+        <v>564.5584777348398</v>
       </c>
       <c r="D5" t="n">
-        <v>1314.037830043711</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>899.6976145606079</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>478.6672025142955</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>69.93891840712763</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>69.93891840712763</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>1054.568412147452</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1054.568412147452</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1730.766722221062</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="W5" t="n">
-        <v>1730.766722221062</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="X5" t="n">
-        <v>1730.766722221062</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="Y5" t="n">
-        <v>1730.766722221062</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356.0036667135541</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="C7" t="n">
-        <v>356.0036667135541</v>
+        <v>676.4091265223246</v>
       </c>
       <c r="D7" t="n">
-        <v>356.0036667135541</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E7" t="n">
         <v>356.0036667135541</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1147.302938405474</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>873.4171933449963</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>594.3475288538707</v>
+        <v>1498.281766106204</v>
       </c>
       <c r="X7" t="n">
-        <v>356.0036667135541</v>
+        <v>1259.937903965888</v>
       </c>
       <c r="Y7" t="n">
-        <v>356.0036667135541</v>
+        <v>1035.202205354653</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>974.6830684215696</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>564.5584777348397</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D11" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
         <v>1320.262653899312</v>
@@ -5080,13 +5080,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="12">
@@ -5132,13 +5132,13 @@
         <v>754.331869609911</v>
       </c>
       <c r="N12" t="n">
-        <v>1627.989961721529</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
         <v>2139.732893541123</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>415.1794346515229</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>254.2686195198424</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>254.2686195198424</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1167.341116836419</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>884.5429693825431</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V13" t="n">
-        <v>610.6572243220651</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W13" t="n">
-        <v>331.5875598309394</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>827.6148396568026</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>602.8791410455673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C14" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862143</v>
       </c>
       <c r="E14" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F14" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G14" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H14" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5293,37 +5293,37 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R14" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S14" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T14" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U14" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V14" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W14" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X14" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y14" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G15" t="n">
         <v>184.7395020346666</v>
@@ -5354,28 +5354,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J15" t="n">
-        <v>107.4329466727332</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K15" t="n">
-        <v>563.2392029380319</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>563.2392029380319</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1406.216283632599</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.484175553476</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="D16" t="n">
-        <v>851.989530876386</v>
+        <v>568.3930939062554</v>
       </c>
       <c r="E16" t="n">
-        <v>691.0787157447054</v>
+        <v>407.4822787745749</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851662</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851662</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I16" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J16" t="n">
         <v>107.3262470958333</v>
@@ -5469,19 +5469,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1310.542319148933</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>1031.472654657807</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>793.1287925174908</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>568.3930939062554</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674172</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710028</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127133</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046284</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U17" t="n">
-        <v>4439.978400477999</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V17" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G18" t="n">
         <v>184.7395020346666</v>
@@ -5591,16 +5591,16 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M18" t="n">
         <v>874.0699105066985</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I19" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J19" t="n">
         <v>107.3262470958333</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1343.572929820347</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1343.572929820347</v>
+        <v>93.24369769062281</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
         <v>1734.602869382415</v>
@@ -5752,16 +5752,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
         <v>3127.679677710027</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3449.320053209158</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X20" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M21" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>706.2250570456695</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>535.131684607386</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
         <v>209.5897435862967</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1167.810508500192</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>893.9247634397138</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>893.9247634397138</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>893.9247634397138</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>893.9247634397138</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092809</v>
       </c>
       <c r="C23" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406079</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.17546949914</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016036</v>
       </c>
       <c r="F23" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697238</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2396990962708</v>
+        <v>257.2495415964503</v>
       </c>
       <c r="H23" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J23" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732512</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L23" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M23" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344927</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338188</v>
       </c>
       <c r="S23" t="n">
-        <v>4870.998205338185</v>
+        <v>4739.658996968404</v>
       </c>
       <c r="T23" t="n">
-        <v>4747.199906710204</v>
+        <v>4518.209749210385</v>
       </c>
       <c r="U23" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168607</v>
       </c>
       <c r="V23" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505088</v>
       </c>
       <c r="W23" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640256</v>
       </c>
       <c r="X23" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809209</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757299</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>567.8743197625566</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676371</v>
+        <v>567.8743197625566</v>
       </c>
       <c r="M24" t="n">
-        <v>514.8469186904417</v>
+        <v>567.8743197625566</v>
       </c>
       <c r="N24" t="n">
-        <v>1412.097852308888</v>
+        <v>567.8743197625566</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>429.4241516767277</v>
+        <v>671.6960076480141</v>
       </c>
       <c r="C25" t="n">
-        <v>258.3307792384442</v>
+        <v>671.6960076480141</v>
       </c>
       <c r="D25" t="n">
-        <v>258.3307792384442</v>
+        <v>512.201362970924</v>
       </c>
       <c r="E25" t="n">
-        <v>97.41996410676371</v>
+        <v>351.2905478392435</v>
       </c>
       <c r="F25" t="n">
-        <v>97.41996410676371</v>
+        <v>351.2905478392435</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676371</v>
+        <v>351.2905478392435</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676371</v>
+        <v>202.3729787155601</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J25" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K25" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025716</v>
       </c>
       <c r="M25" t="n">
-        <v>852.6563092888647</v>
+        <v>852.6563092888651</v>
       </c>
       <c r="N25" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
         <v>1702.21247802243</v>
@@ -6177,22 +6177,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U25" t="n">
-        <v>1633.158828373928</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V25" t="n">
-        <v>1359.27308331345</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W25" t="n">
-        <v>1080.203418822324</v>
+        <v>910.0398697883306</v>
       </c>
       <c r="X25" t="n">
-        <v>841.8595566820075</v>
+        <v>671.6960076480141</v>
       </c>
       <c r="Y25" t="n">
-        <v>617.1238580707721</v>
+        <v>671.6960076480141</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2544.754147592629</v>
+        <v>2447.103198462592</v>
       </c>
       <c r="C26" t="n">
-        <v>2134.629556905899</v>
+        <v>2036.978607775863</v>
       </c>
       <c r="D26" t="n">
-        <v>1730.16562699896</v>
+        <v>1632.514677868923</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.825411515857</v>
+        <v>1218.17446238582</v>
       </c>
       <c r="F26" t="n">
-        <v>894.7949994695443</v>
+        <v>797.1440503395074</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732494</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477945</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L26" t="n">
-        <v>1665.067141547875</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M26" t="n">
-        <v>2471.155711445508</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S26" t="n">
-        <v>4747.199906710204</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T26" t="n">
-        <v>4747.199906710204</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U26" t="n">
-        <v>4490.153253668426</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V26" t="n">
-        <v>4140.315699004907</v>
+        <v>4042.664749874871</v>
       </c>
       <c r="W26" t="n">
-        <v>3756.555398140076</v>
+        <v>3658.90444901004</v>
       </c>
       <c r="X26" t="n">
-        <v>3355.912000309029</v>
+        <v>3258.261051178992</v>
       </c>
       <c r="Y26" t="n">
-        <v>2954.975327257119</v>
+        <v>2857.324378127082</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1183.652854113933</v>
+        <v>215.683886301237</v>
       </c>
       <c r="C28" t="n">
-        <v>1012.55948167565</v>
+        <v>215.683886301237</v>
       </c>
       <c r="D28" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="E28" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F28" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G28" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K28" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
         <v>1702.21247802243</v>
@@ -6417,19 +6417,19 @@
         <v>1702.21247802243</v>
       </c>
       <c r="U28" t="n">
-        <v>1702.21247802243</v>
+        <v>1419.418562998437</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.21247802243</v>
+        <v>1145.532817937959</v>
       </c>
       <c r="W28" t="n">
-        <v>1702.21247802243</v>
+        <v>866.4631534468333</v>
       </c>
       <c r="X28" t="n">
-        <v>1463.868615882113</v>
+        <v>628.1192913065167</v>
       </c>
       <c r="Y28" t="n">
-        <v>1371.352560507977</v>
+        <v>403.3835926952814</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C29" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D29" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F29" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J29" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N29" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T29" t="n">
-        <v>4739.658996968402</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U29" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V29" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W29" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X29" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.7227187698359</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="C31" t="n">
-        <v>749.6293463315524</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="D31" t="n">
-        <v>590.1347016544623</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="E31" t="n">
-        <v>429.2238865227819</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F31" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J31" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K31" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
         <v>1702.21247802243</v>
@@ -6648,25 +6648,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T31" t="n">
-        <v>1517.172971249823</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U31" t="n">
-        <v>1517.172971249823</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V31" t="n">
-        <v>1517.172971249823</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W31" t="n">
-        <v>1517.172971249823</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.158123775116</v>
+        <v>388.9020926240207</v>
       </c>
       <c r="Y31" t="n">
-        <v>1108.42242516388</v>
+        <v>164.1663940127854</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F32" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G32" t="n">
-        <v>257.2495415964476</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L32" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M32" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1012.55948167565</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="C34" t="n">
-        <v>1012.55948167565</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="D34" t="n">
-        <v>853.0648369985595</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="E34" t="n">
-        <v>692.1540218668789</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J34" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K34" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
         <v>1702.21247802243</v>
@@ -6888,22 +6888,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1483.053103093687</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>1200.259188069694</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>1200.259188069694</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W34" t="n">
-        <v>1200.259188069694</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X34" t="n">
-        <v>1200.259188069694</v>
+        <v>388.9020926240207</v>
       </c>
       <c r="Y34" t="n">
-        <v>1200.259188069694</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="35">
@@ -6934,52 +6934,52 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J35" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505087</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640254</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809207</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
         <v>2954.975327257119</v>
@@ -7013,31 +7013,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676373</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K36" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>567.8743197625565</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>1433.835910378867</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
         <v>2137.637783597812</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>417.4309056687307</v>
+        <v>696.074597778553</v>
       </c>
       <c r="C37" t="n">
-        <v>246.3375332304472</v>
+        <v>524.9812253402695</v>
       </c>
       <c r="D37" t="n">
-        <v>246.3375332304472</v>
+        <v>524.9812253402695</v>
       </c>
       <c r="E37" t="n">
-        <v>246.3375332304472</v>
+        <v>524.9812253402695</v>
       </c>
       <c r="F37" t="n">
-        <v>246.3375332304472</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G37" t="n">
-        <v>246.3375332304472</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I37" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J37" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K37" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025712</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>852.6563092888647</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S37" t="n">
-        <v>1517.172971249823</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T37" t="n">
-        <v>1391.729890189129</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U37" t="n">
-        <v>1108.935975165136</v>
+        <v>975.1442622696786</v>
       </c>
       <c r="V37" t="n">
-        <v>1108.935975165136</v>
+        <v>975.1442622696786</v>
       </c>
       <c r="W37" t="n">
-        <v>829.8663106740104</v>
+        <v>696.074597778553</v>
       </c>
       <c r="X37" t="n">
-        <v>829.8663106740104</v>
+        <v>696.074597778553</v>
       </c>
       <c r="Y37" t="n">
-        <v>605.1306120627751</v>
+        <v>696.074597778553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092809</v>
       </c>
       <c r="C38" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406079</v>
       </c>
       <c r="D38" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.17546949914</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016036</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697238</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>257.2495415964503</v>
       </c>
       <c r="H38" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J38" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732512</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344927</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338188</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968404</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210385</v>
       </c>
       <c r="U38" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168607</v>
       </c>
       <c r="V38" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505088</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640256</v>
       </c>
       <c r="X38" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809209</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757299</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676371</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676371</v>
+        <v>769.257530938212</v>
       </c>
       <c r="L39" t="n">
-        <v>546.1362616925774</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3596.793708537893</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="C40" t="n">
-        <v>3425.700336099609</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="D40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="E40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="F40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="G40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676377</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025716</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888651</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4870.998205338185</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="S40" t="n">
-        <v>4870.998205338185</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T40" t="n">
-        <v>4870.998205338185</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.204290314192</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V40" t="n">
-        <v>4314.318545253714</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W40" t="n">
-        <v>4035.248880762588</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X40" t="n">
-        <v>3821.529407149128</v>
+        <v>322.1556627179991</v>
       </c>
       <c r="Y40" t="n">
-        <v>3596.793708537893</v>
+        <v>97.41996410676377</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092808</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406078</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499139</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016035</v>
       </c>
       <c r="F41" t="n">
         <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>486.2396990962707</v>
       </c>
       <c r="H41" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J41" t="n">
         <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477955</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P41" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U41" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V41" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505087</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640255</v>
       </c>
       <c r="X41" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809208</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757298</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L42" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4187.80745554028</v>
+        <v>604.3937224278783</v>
       </c>
       <c r="C43" t="n">
-        <v>4016.714083101996</v>
+        <v>604.3937224278783</v>
       </c>
       <c r="D43" t="n">
-        <v>3857.219438424906</v>
+        <v>444.8990777507883</v>
       </c>
       <c r="E43" t="n">
-        <v>3696.308623293226</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="F43" t="n">
-        <v>3696.308623293226</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G43" t="n">
-        <v>3529.135826766616</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H43" t="n">
-        <v>3380.218257642933</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025717</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R43" t="n">
-        <v>4838.586722685876</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S43" t="n">
-        <v>4838.586722685876</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="T43" t="n">
-        <v>4838.586722685876</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="U43" t="n">
-        <v>4838.586722685876</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="V43" t="n">
-        <v>4838.586722685876</v>
+        <v>1346.542947670556</v>
       </c>
       <c r="W43" t="n">
-        <v>4838.586722685876</v>
+        <v>1067.47328317943</v>
       </c>
       <c r="X43" t="n">
-        <v>4600.24286054556</v>
+        <v>829.1294210391136</v>
       </c>
       <c r="Y43" t="n">
-        <v>4375.507161934324</v>
+        <v>604.3937224278783</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C44" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D44" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F44" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G44" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J44" t="n">
-        <v>365.9950463732501</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477956</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.155711445508</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372257</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270216</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344927</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="T44" t="n">
-        <v>4747.199906710204</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U44" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V44" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W44" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X44" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382121</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>1776.213932090868</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>1776.213932090868</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3543.689890087348</v>
+        <v>545.3927201303349</v>
       </c>
       <c r="C46" t="n">
-        <v>3425.700336099609</v>
+        <v>374.2993476920514</v>
       </c>
       <c r="D46" t="n">
-        <v>3266.205691422519</v>
+        <v>374.2993476920514</v>
       </c>
       <c r="E46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="F46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G46" t="n">
-        <v>3266.205691422519</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H46" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025717</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888653</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.212478022431</v>
       </c>
       <c r="R46" t="n">
-        <v>4789.214420046788</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S46" t="n">
-        <v>4604.174913274182</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T46" t="n">
-        <v>4604.174913274182</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U46" t="n">
-        <v>4321.380998250188</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="V46" t="n">
-        <v>4047.49525318971</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="W46" t="n">
-        <v>3768.425588698584</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="X46" t="n">
-        <v>3768.425588698584</v>
+        <v>957.8281251356145</v>
       </c>
       <c r="Y46" t="n">
-        <v>3543.689890087348</v>
+        <v>733.0924265243792</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>229.2480899138817</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>67.67798733913774</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
-        <v>596.4554908421626</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8534,28 +8534,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>363.7739143332572</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>574.6635313430244</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>389.2085932869795</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>65.70181352940445</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>189.6570480412973</v>
       </c>
       <c r="M18" t="n">
-        <v>846.2776300172818</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
@@ -9482,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1409094511112</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>743.7439864875635</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856361</v>
+        <v>42.71231595856354</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421736</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.2193952065452</v>
+        <v>36.21939520654503</v>
       </c>
       <c r="M24" t="n">
-        <v>455.990995518149</v>
+        <v>34.34760704978713</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654923</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>671.6188998319378</v>
       </c>
       <c r="P24" t="n">
-        <v>36.7625314945888</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861593</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.31116889588061</v>
+        <v>53.31116889588056</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856361</v>
+        <v>42.71231595856354</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421736</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.2193952065452</v>
+        <v>636.3405346980492</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978713</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654923</v>
       </c>
       <c r="O27" t="n">
-        <v>315.7539583063253</v>
+        <v>35.9506297646161</v>
       </c>
       <c r="P27" t="n">
-        <v>36.7625314945888</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861593</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856361</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421736</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.2193952065452</v>
+        <v>432.9231496721347</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978713</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654923</v>
       </c>
       <c r="O30" t="n">
-        <v>315.7539583063253</v>
+        <v>35.9506297646161</v>
       </c>
       <c r="P30" t="n">
-        <v>36.7625314945888</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861593</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856361</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421736</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.2193952065452</v>
+        <v>432.9231496721347</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978713</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654923</v>
       </c>
       <c r="O33" t="n">
-        <v>315.7539583063253</v>
+        <v>35.9506297646161</v>
       </c>
       <c r="P33" t="n">
-        <v>36.7625314945888</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861593</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856361</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.2193952065452</v>
+        <v>432.9231496721347</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978713</v>
       </c>
       <c r="N36" t="n">
-        <v>740.2732234059891</v>
+        <v>29.36224035654923</v>
       </c>
       <c r="O36" t="n">
-        <v>35.95062976461628</v>
+        <v>35.9506297646161</v>
       </c>
       <c r="P36" t="n">
-        <v>36.7625314945888</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861593</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.31116889588061</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>489.468180646761</v>
+        <v>432.9231496721346</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978713</v>
       </c>
       <c r="N39" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654923</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>35.9506297646161</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507332</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721344</v>
       </c>
       <c r="M42" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978707</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654917</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461605</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780083</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920608</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721344</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978707</v>
       </c>
       <c r="N45" t="n">
-        <v>850.4050457785637</v>
+        <v>29.36224035654917</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461624</v>
+        <v>35.95062976461605</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>42.06483528720065</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23424,16 +23424,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>154.2745951953825</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>115.1825854367171</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>55.35263051300467</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>134.6847134965106</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>137.0114616263634</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>242.1377811782958</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>134.6847134965108</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>251.3675030981227</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>147.8142767156726</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>96.67443963873755</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>8.968956095501071</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.6028627217364</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>17.78846042958691</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>7.465500644385017</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>40.81841525779052</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S28" t="n">
         <v>183.1891117048806</v>
@@ -24657,19 +24657,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.8974468047286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>17.78846042958739</v>
       </c>
       <c r="U29" t="n">
-        <v>7.465500644384718</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.7437437231425</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
         <v>147.4283934324466</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>53.78572451895326</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.88597920914965</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>17.78846042958739</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848277</v>
       </c>
       <c r="S34" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>19.85724551621618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>119.7437437231425</v>
       </c>
     </row>
     <row r="35">
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>226.7002559248228</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>226.7002559248238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5010685613433</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>112.6363764455844</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>61.14852811756364</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>226.7002559248223</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>14.88698183152138</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.37814464158831</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>226.7002559248232</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>75.59821846343543</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.87857961269676</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>183.1891117048806</v>
@@ -25845,10 +25845,10 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914964</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>96.67443963873755</v>
+        <v>17.78846042958739</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>52.57278026603873</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>145.491951221585</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>735415.8490163663</v>
+        <v>735415.8490163662</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696870.4890953774</v>
+        <v>696870.4890953775</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696870.4890953774</v>
+        <v>696870.4890953775</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696870.4890953774</v>
+        <v>696870.4890953775</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>696870.4890953773</v>
+        <v>696870.4890953774</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>715375.6999814191</v>
+        <v>715375.6999814193</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715375.6999814191</v>
+        <v>715375.6999814193</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>715375.6999814191</v>
+        <v>715375.6999814193</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>715375.6999814189</v>
+        <v>715375.6999814193</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>715375.6999814191</v>
+        <v>715375.6999814193</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>715375.699981419</v>
+        <v>715375.6999814191</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715375.699981419</v>
+        <v>715375.6999814191</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.939794125</v>
       </c>
       <c r="C2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.9397941252</v>
       </c>
       <c r="D2" t="n">
-        <v>472358.9397941253</v>
+        <v>472358.9397941252</v>
       </c>
       <c r="E2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="F2" t="n">
         <v>419990.5679258859</v>
@@ -26331,31 +26331,31 @@
         <v>419990.5679258859</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258861</v>
       </c>
       <c r="I2" t="n">
         <v>433884.7810915628</v>
       </c>
       <c r="J2" t="n">
-        <v>433884.7810915628</v>
+        <v>433884.7810915624</v>
       </c>
       <c r="K2" t="n">
-        <v>433884.7810915627</v>
+        <v>433884.7810915624</v>
       </c>
       <c r="L2" t="n">
-        <v>433884.7810915625</v>
+        <v>433884.7810915629</v>
       </c>
       <c r="M2" t="n">
-        <v>433884.7810915628</v>
+        <v>433884.781091563</v>
       </c>
       <c r="N2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915624</v>
       </c>
       <c r="O2" t="n">
-        <v>433884.7810915627</v>
+        <v>433884.7810915624</v>
       </c>
       <c r="P2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915629</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588481</v>
+        <v>45948.62261588512</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26481,37 +26481,37 @@
         <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="G5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="M5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868567</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868567</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9317.956031023547</v>
+        <v>9317.956031023314</v>
       </c>
       <c r="C6" t="n">
-        <v>184273.4659241377</v>
+        <v>184273.4659241375</v>
       </c>
       <c r="D6" t="n">
-        <v>184273.4659241377</v>
+        <v>184273.4659241376</v>
       </c>
       <c r="E6" t="n">
-        <v>53166.74620298935</v>
+        <v>52986.16561034031</v>
       </c>
       <c r="F6" t="n">
-        <v>245296.5091024326</v>
+        <v>245115.9285097835</v>
       </c>
       <c r="G6" t="n">
-        <v>245296.5091024326</v>
+        <v>245115.9285097835</v>
       </c>
       <c r="H6" t="n">
-        <v>245296.5091024325</v>
+        <v>245115.9285097837</v>
       </c>
       <c r="I6" t="n">
-        <v>210250.7828071979</v>
+        <v>210118.1132944301</v>
       </c>
       <c r="J6" t="n">
-        <v>119604.6046171877</v>
+        <v>119471.93510442</v>
       </c>
       <c r="K6" t="n">
-        <v>256199.4054230827</v>
+        <v>256066.7359103149</v>
       </c>
       <c r="L6" t="n">
-        <v>256199.4054230825</v>
+        <v>256066.7359103153</v>
       </c>
       <c r="M6" t="n">
-        <v>95840.95492239995</v>
+        <v>95708.28540963284</v>
       </c>
       <c r="N6" t="n">
-        <v>256199.4054230826</v>
+        <v>256066.7359103149</v>
       </c>
       <c r="O6" t="n">
-        <v>256199.4054230827</v>
+        <v>256066.7359103149</v>
       </c>
       <c r="P6" t="n">
-        <v>256199.4054230826</v>
+        <v>256066.7359103154</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812863</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812863</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812863</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812863</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812863</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812909</v>
       </c>
       <c r="P3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.59940676812909</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="K4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334547</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812899</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176213</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700257</v>
+        <v>522.0635703700252</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627597</v>
+        <v>643.4826507627592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>29.94534391296463</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>146.1473268010586</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2.63205186856402</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>174.1172655819358</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>57.59615060634724</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>180.8782168320124</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>129.2955741530525</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>204.1255738634094</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27915,10 +27915,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>214.4617355713114</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300493</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552923</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096873</v>
+        <v>1.753853968096888</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947857</v>
+        <v>6.602265846947913</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275963</v>
+        <v>14.53496040275975</v>
       </c>
       <c r="K23" t="n">
-        <v>21.7841378439451</v>
+        <v>21.78413784394528</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064909</v>
+        <v>27.02514928064931</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351424</v>
+        <v>30.07068576351449</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710196</v>
+        <v>30.55726089710222</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323028</v>
+        <v>28.85435496323053</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202154</v>
+        <v>24.62652439202175</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163518</v>
+        <v>18.49349422163533</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949139</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753694</v>
+        <v>3.902448167753727</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707861</v>
+        <v>0.7496639321707924</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106914</v>
+        <v>0.09162891267106991</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284836</v>
+        <v>0.8849423934284911</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017074</v>
+        <v>3.1547673880171</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436407</v>
+        <v>8.656922841436479</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039816</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430385</v>
+        <v>19.89512860430402</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2166766886301</v>
+        <v>23.2166766886303</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720056</v>
+        <v>23.83115303720077</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538372</v>
+        <v>21.8008492353839</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821495</v>
+        <v>17.4971035082151</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622279</v>
+        <v>11.69635032622289</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524804</v>
+        <v>5.689030209524852</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745516</v>
+        <v>1.70196686474553</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557566</v>
+        <v>0.3693288190557597</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886129</v>
+        <v>0.006028217938886181</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875654</v>
+        <v>0.07681860236875719</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513086</v>
+        <v>0.6829872101513145</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507697</v>
+        <v>2.310144878507717</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471087</v>
+        <v>5.431075187471134</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388258</v>
+        <v>8.924924893388333</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944222</v>
+        <v>11.42083111944232</v>
       </c>
       <c r="M25" t="n">
-        <v>12.0416650967679</v>
+        <v>12.041665096768</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521163</v>
+        <v>11.75534121521173</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935852</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035787</v>
+        <v>9.290860781035866</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987423</v>
+        <v>6.432510421987478</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871543</v>
+        <v>3.454043702871572</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008238</v>
+        <v>1.33873873400825</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937778</v>
+        <v>0.3282249373937807</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750362</v>
+        <v>0.004190105583750397</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552923</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096873</v>
+        <v>1.753853968096888</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947857</v>
+        <v>6.602265846947913</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275963</v>
+        <v>14.53496040275975</v>
       </c>
       <c r="K26" t="n">
-        <v>21.7841378439451</v>
+        <v>21.78413784394528</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064909</v>
+        <v>27.02514928064931</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351424</v>
+        <v>30.07068576351449</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710196</v>
+        <v>30.55726089710222</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323028</v>
+        <v>28.85435496323053</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202154</v>
+        <v>24.62652439202175</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163518</v>
+        <v>18.49349422163533</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949139</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753694</v>
+        <v>3.902448167753727</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707861</v>
+        <v>0.7496639321707924</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106914</v>
+        <v>0.09162891267106991</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284836</v>
+        <v>0.8849423934284911</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017074</v>
+        <v>3.1547673880171</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436407</v>
+        <v>8.656922841436479</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039816</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430385</v>
+        <v>19.89512860430402</v>
       </c>
       <c r="M27" t="n">
-        <v>23.2166766886301</v>
+        <v>23.2166766886303</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720056</v>
+        <v>23.83115303720077</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538372</v>
+        <v>21.8008492353839</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821495</v>
+        <v>17.4971035082151</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622279</v>
+        <v>11.69635032622289</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524804</v>
+        <v>5.689030209524852</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745516</v>
+        <v>1.70196686474553</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557566</v>
+        <v>0.3693288190557597</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886129</v>
+        <v>0.006028217938886181</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875654</v>
+        <v>0.07681860236875719</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513086</v>
+        <v>0.6829872101513145</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507697</v>
+        <v>2.310144878507717</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471087</v>
+        <v>5.431075187471134</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388258</v>
+        <v>8.924924893388333</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944222</v>
+        <v>11.42083111944232</v>
       </c>
       <c r="M28" t="n">
-        <v>12.0416650967679</v>
+        <v>12.041665096768</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521163</v>
+        <v>11.75534121521173</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935852</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035787</v>
+        <v>9.290860781035866</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987423</v>
+        <v>6.432510421987478</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871543</v>
+        <v>3.454043702871572</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008238</v>
+        <v>1.33873873400825</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937778</v>
+        <v>0.3282249373937807</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750362</v>
+        <v>0.004190105583750397</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552923</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096873</v>
+        <v>1.753853968096888</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947857</v>
+        <v>6.602265846947913</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275963</v>
+        <v>14.53496040275975</v>
       </c>
       <c r="K29" t="n">
-        <v>21.7841378439451</v>
+        <v>21.78413784394528</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064909</v>
+        <v>27.02514928064931</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351424</v>
+        <v>30.07068576351449</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710196</v>
+        <v>30.55726089710222</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323028</v>
+        <v>28.85435496323053</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202154</v>
+        <v>24.62652439202175</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163518</v>
+        <v>18.49349422163533</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949139</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753694</v>
+        <v>3.902448167753727</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707861</v>
+        <v>0.7496639321707924</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442338</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106914</v>
+        <v>0.09162891267106991</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284836</v>
+        <v>0.8849423934284911</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017074</v>
+        <v>3.1547673880171</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436407</v>
+        <v>8.656922841436479</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039816</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430385</v>
+        <v>19.89512860430402</v>
       </c>
       <c r="M30" t="n">
-        <v>23.2166766886301</v>
+        <v>23.2166766886303</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720056</v>
+        <v>23.83115303720077</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538372</v>
+        <v>21.8008492353839</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821495</v>
+        <v>17.4971035082151</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622279</v>
+        <v>11.69635032622289</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524804</v>
+        <v>5.689030209524852</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745516</v>
+        <v>1.70196686474553</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557566</v>
+        <v>0.3693288190557597</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886129</v>
+        <v>0.006028217938886181</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875654</v>
+        <v>0.07681860236875719</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513086</v>
+        <v>0.6829872101513145</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507697</v>
+        <v>2.310144878507717</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471087</v>
+        <v>5.431075187471134</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388258</v>
+        <v>8.924924893388333</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944222</v>
+        <v>11.42083111944232</v>
       </c>
       <c r="M31" t="n">
-        <v>12.0416650967679</v>
+        <v>12.041665096768</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521163</v>
+        <v>11.75534121521173</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935852</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035787</v>
+        <v>9.290860781035866</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987423</v>
+        <v>6.432510421987478</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871543</v>
+        <v>3.454043702871572</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008238</v>
+        <v>1.33873873400825</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937778</v>
+        <v>0.3282249373937807</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750362</v>
+        <v>0.004190105583750397</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552923</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096873</v>
+        <v>1.753853968096888</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947857</v>
+        <v>6.602265846947913</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275963</v>
+        <v>14.53496040275975</v>
       </c>
       <c r="K32" t="n">
-        <v>21.7841378439451</v>
+        <v>21.78413784394528</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064909</v>
+        <v>27.02514928064931</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351424</v>
+        <v>30.07068576351449</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710196</v>
+        <v>30.55726089710222</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323028</v>
+        <v>28.85435496323053</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202154</v>
+        <v>24.62652439202175</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163518</v>
+        <v>18.49349422163533</v>
       </c>
       <c r="R32" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949139</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753694</v>
+        <v>3.902448167753727</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707861</v>
+        <v>0.7496639321707924</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442338</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106914</v>
+        <v>0.09162891267106991</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284836</v>
+        <v>0.8849423934284911</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017074</v>
+        <v>3.1547673880171</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436407</v>
+        <v>8.656922841436479</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039816</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430385</v>
+        <v>19.89512860430402</v>
       </c>
       <c r="M33" t="n">
-        <v>23.2166766886301</v>
+        <v>23.2166766886303</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720056</v>
+        <v>23.83115303720077</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538372</v>
+        <v>21.8008492353839</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821495</v>
+        <v>17.4971035082151</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622279</v>
+        <v>11.69635032622289</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524804</v>
+        <v>5.689030209524852</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745516</v>
+        <v>1.70196686474553</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557566</v>
+        <v>0.3693288190557597</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886129</v>
+        <v>0.006028217938886181</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875654</v>
+        <v>0.07681860236875719</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513086</v>
+        <v>0.6829872101513145</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507697</v>
+        <v>2.310144878507717</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471087</v>
+        <v>5.431075187471134</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388258</v>
+        <v>8.924924893388333</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944222</v>
+        <v>11.42083111944232</v>
       </c>
       <c r="M34" t="n">
-        <v>12.0416650967679</v>
+        <v>12.041665096768</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521163</v>
+        <v>11.75534121521173</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935852</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035787</v>
+        <v>9.290860781035866</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987423</v>
+        <v>6.432510421987478</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871543</v>
+        <v>3.454043702871572</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008238</v>
+        <v>1.33873873400825</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937778</v>
+        <v>0.3282249373937807</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750362</v>
+        <v>0.004190105583750397</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552923</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096873</v>
+        <v>1.753853968096888</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947857</v>
+        <v>6.602265846947913</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275963</v>
+        <v>14.53496040275975</v>
       </c>
       <c r="K35" t="n">
-        <v>21.7841378439451</v>
+        <v>21.78413784394528</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064909</v>
+        <v>27.02514928064931</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351424</v>
+        <v>30.07068576351449</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710196</v>
+        <v>30.55726089710222</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323028</v>
+        <v>28.85435496323053</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202154</v>
+        <v>24.62652439202175</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163518</v>
+        <v>18.49349422163533</v>
       </c>
       <c r="R35" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949139</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753694</v>
+        <v>3.902448167753727</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707861</v>
+        <v>0.7496639321707924</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106914</v>
+        <v>0.09162891267106991</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284836</v>
+        <v>0.8849423934284911</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017074</v>
+        <v>3.1547673880171</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436407</v>
+        <v>8.656922841436479</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039816</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430385</v>
+        <v>19.89512860430402</v>
       </c>
       <c r="M36" t="n">
-        <v>23.2166766886301</v>
+        <v>23.2166766886303</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720056</v>
+        <v>23.83115303720077</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538372</v>
+        <v>21.8008492353839</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821495</v>
+        <v>17.4971035082151</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622279</v>
+        <v>11.69635032622289</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524804</v>
+        <v>5.689030209524852</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745516</v>
+        <v>1.70196686474553</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557566</v>
+        <v>0.3693288190557597</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886129</v>
+        <v>0.006028217938886181</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875654</v>
+        <v>0.07681860236875719</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513086</v>
+        <v>0.6829872101513145</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507697</v>
+        <v>2.310144878507717</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471087</v>
+        <v>5.431075187471134</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388258</v>
+        <v>8.924924893388333</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944222</v>
+        <v>11.42083111944232</v>
       </c>
       <c r="M37" t="n">
-        <v>12.0416650967679</v>
+        <v>12.041665096768</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521163</v>
+        <v>11.75534121521173</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935852</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035787</v>
+        <v>9.290860781035866</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987423</v>
+        <v>6.432510421987478</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871543</v>
+        <v>3.454043702871572</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008238</v>
+        <v>1.33873873400825</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937778</v>
+        <v>0.3282249373937807</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750362</v>
+        <v>0.004190105583750397</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552923</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096888</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947913</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275975</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394528</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064931</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351449</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710222</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323053</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202175</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163533</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949139</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753727</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707924</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442338</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106991</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284911</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017079</v>
+        <v>3.1547673880171</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436479</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039816</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430402</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863014</v>
+        <v>23.2166766886303</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720077</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538375</v>
+        <v>21.8008492353839</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821498</v>
+        <v>17.4971035082151</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622289</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524852</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745519</v>
+        <v>1.70196686474553</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557597</v>
       </c>
       <c r="U39" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886181</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875719</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513145</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507717</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471134</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388333</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944232</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676792</v>
+        <v>12.041665096768</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521173</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935852</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035866</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987478</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871572</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008241</v>
+        <v>1.33873873400825</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937807</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750397</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552927</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096892</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947927</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275978</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394533</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064937</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351456</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710229</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323059</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202158</v>
+        <v>24.6265243920218</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163537</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949141</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753736</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442341</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267107011</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.884942393428493</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017107</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436499</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903982</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430406</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863035</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720082</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538395</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821514</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622292</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524864</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745534</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557605</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886194</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875736</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513159</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507722</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471145</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388352</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944235</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676803</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521176</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935854</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035887</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987492</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871549</v>
+        <v>3.45404370287158</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008253</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937813</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552927</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096892</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947927</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275978</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394533</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064937</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351456</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710229</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323059</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.6265243920218</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163537</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949141</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753736</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442341</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267107011</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.884942393428493</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017107</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.656922841436499</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903982</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430406</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863035</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720082</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538395</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821514</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622292</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524864</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745534</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557605</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886194</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875736</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513159</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507722</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471145</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388352</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944235</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676803</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521176</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935854</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035887</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987492</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.45404370287158</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008253</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937813</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>135.5987266329976</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N3" t="n">
-        <v>14.48459394538775</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>500.9700927793178</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>338.0047407346337</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>441.8756042977812</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>306.2096305948398</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>516.9120523430244</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>334.9489582841758</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.33257472940443</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>133.5425242304483</v>
       </c>
       <c r="M18" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396342</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209635</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955736</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990957</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.5017150698499</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682949</v>
+        <v>51.72383635682959</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>421.6433884683616</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635598</v>
+        <v>635.6682700673217</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647166</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L25" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M25" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N25" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O25" t="n">
         <v>273.0403949425647</v>
       </c>
       <c r="P25" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543276</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682949</v>
+        <v>51.72383635682959</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>600.1211394915041</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647166</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L28" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M28" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N28" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O28" t="n">
         <v>273.0403949425647</v>
       </c>
       <c r="P28" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543276</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682949</v>
+        <v>51.72383635682959</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655897</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647166</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L31" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M31" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N31" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O31" t="n">
         <v>273.0403949425647</v>
       </c>
       <c r="P31" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543276</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682949</v>
+        <v>51.72383635682959</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655897</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647166</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L34" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M34" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N34" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O34" t="n">
         <v>273.0403949425647</v>
       </c>
       <c r="P34" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543276</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.2879618853397</v>
+        <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682949</v>
+        <v>51.72383635682959</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>475.2064198543361</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.7037544655897</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>710.9109830494397</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647161</v>
+        <v>19.65587256647166</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L37" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M37" t="n">
-        <v>304.2275806932257</v>
+        <v>304.2275806932258</v>
       </c>
       <c r="N37" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O37" t="n">
         <v>273.0403949425647</v>
       </c>
       <c r="P37" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543276</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682959</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>453.2487854402158</v>
+        <v>396.7037544655896</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581768</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647166</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
       </c>
       <c r="P40" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543276</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.346166592676</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618706</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="M42" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581769</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K43" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.9431546346551</v>
       </c>
       <c r="M43" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871818</v>
       </c>
       <c r="O43" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P43" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.2879618853398</v>
+        <v>271.2879618853399</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096418</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202836</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844771</v>
+        <v>814.2308786844782</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926757</v>
+        <v>791.346166592676</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623264</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618718</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906172</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543363</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655894</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>821.0428054220143</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817617</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581769</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647167</v>
       </c>
       <c r="K46" t="n">
-        <v>165.0383872390832</v>
+        <v>165.0383872390833</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.9431546346551</v>
       </c>
       <c r="M46" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932259</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871818</v>
       </c>
       <c r="O46" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425648</v>
       </c>
       <c r="P46" t="n">
-        <v>217.0438307301392</v>
+        <v>217.0438307301393</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543277</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
